--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2380.286129087424</v>
+        <v>849.3317834122257</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.99795537650738</v>
+        <v>15.23898798427298</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.685690984262621</v>
+        <v>13.72237791682568</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1867.789999999996</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>492.9599999999999</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,12 +628,45 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.685690984262621</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.39818852545001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.552990911150687</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.44700908884931</v>
+        <v>42.58460255878718</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.58460255878718</v>
+        <v>37.44700908884931</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1034,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1048,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1062,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1076,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,13 +1090,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1104,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1118,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1132,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,13 +1146,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1127,13 +1160,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1141,13 +1174,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1155,57 +1188,15 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>156.385</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>148.475</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.015</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>152.455</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>155.54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>241.4549999999991</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>237.0149999999991</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>227.9249999999991</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>235.4249999999992</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>238.2849999999991</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>146.0850000000009</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>146.0700000000009</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>153.8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>155.6850000000009</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>146.0850000000009</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>146.0700000000009</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>153.8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.6850000000009</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>241.4549999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>237.0149999999991</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>227.9249999999991</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>235.4249999999992</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>238.2849999999991</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>46.08500000000086</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>46.07000000000087</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>55.68500000000088</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>141.4549999999991</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>137.0149999999991</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>127.9249999999991</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>135.4249999999992</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>138.2849999999991</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1899,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1932,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1954,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2119,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2171,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2182,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2193,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2204,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,10 +2215,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2235,10 +2226,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2246,10 +2237,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2257,10 +2248,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2268,10 +2259,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2279,10 +2270,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2290,10 +2281,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2301,10 +2292,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2312,10 +2303,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2323,78 +2314,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
